--- a/Data/EC/NIT-9009994202.xlsx
+++ b/Data/EC/NIT-9009994202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCC8DBE5-E1F6-4442-96D6-AF9860CD93FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0B8956-C120-4662-BC21-F57EB11B7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94F14C41-5729-4399-A478-9D2339CF9B08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7B29787-6C1D-4B83-BB3F-5496F3C0E14C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,24 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047402961</t>
+  </si>
+  <si>
+    <t>JONATHAN MEZA BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>1047456993</t>
+  </si>
+  <si>
+    <t>ESTEBAN DE JESUS AHUMEDO BURGOS</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>73162704</t>
   </si>
   <si>
@@ -74,73 +92,55 @@
     <t>2112</t>
   </si>
   <si>
+    <t>73119747</t>
+  </si>
+  <si>
+    <t>PEDRO CLAVER CARABALLO OROZCO</t>
+  </si>
+  <si>
+    <t>9296373</t>
+  </si>
+  <si>
+    <t>RALLPH ANTONIO LLOREDA DORIA</t>
+  </si>
+  <si>
     <t>73574969</t>
   </si>
   <si>
     <t>JOHN ALEXANDER PEREZ DE CASTRO</t>
   </si>
   <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>2201</t>
   </si>
   <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1047456993</t>
-  </si>
-  <si>
-    <t>ESTEBAN DE JESUS AHUMEDO BURGOS</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1047402961</t>
-  </si>
-  <si>
-    <t>JONATHAN MEZA BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
     <t>73167930</t>
   </si>
   <si>
     <t>OMAR DE JESUS TORRES CASTILLO</t>
-  </si>
-  <si>
-    <t>73119747</t>
-  </si>
-  <si>
-    <t>PEDRO CLAVER CARABALLO OROZCO</t>
-  </si>
-  <si>
-    <t>9296373</t>
-  </si>
-  <si>
-    <t>RALLPH ANTONIO LLOREDA DORIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -184,7 +184,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E92056-85EF-C4F6-FF0C-0BB9935B7BA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385FCEC2-33A5-DCE7-A7D3-416D74B7318B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,28 +905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC26135-53EA-4CF0-9E27-64CA940EB5BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1D1D30-C483-4C2A-A58B-4EB7E51C7D5C}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -939,7 +939,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -950,7 +950,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -961,7 +961,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -972,8 +972,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
@@ -988,8 +988,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1004,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1020,8 +1020,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1083,16 +1083,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>8000</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1115,18 +1115,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1138,228 +1138,228 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>8000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
         <v>1160000</v>
@@ -1368,21 +1368,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
         <v>1160000</v>
@@ -1391,21 +1391,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1414,7 +1414,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>34</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F31" s="24">
         <v>46400</v>
@@ -1437,7 +1437,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>44</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
         <v>43</v>
       </c>

--- a/Data/EC/NIT-9009994202.xlsx
+++ b/Data/EC/NIT-9009994202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0B8956-C120-4662-BC21-F57EB11B7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3A9347-F595-4B12-9EF1-594834E7DA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7B29787-6C1D-4B83-BB3F-5496F3C0E14C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50FC5632-D1DA-4E2C-A9CB-8D2505C4165A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,57 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73162704</t>
+  </si>
+  <si>
+    <t>WILSON FRIAS ALCALA</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>73574969</t>
+  </si>
+  <si>
+    <t>JOHN ALEXANDER PEREZ DE CASTRO</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1047456993</t>
+  </si>
+  <si>
+    <t>ESTEBAN DE JESUS AHUMEDO BURGOS</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>1047402961</t>
   </si>
   <si>
@@ -74,24 +125,6 @@
     <t>2304</t>
   </si>
   <si>
-    <t>1047456993</t>
-  </si>
-  <si>
-    <t>ESTEBAN DE JESUS AHUMEDO BURGOS</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>73162704</t>
-  </si>
-  <si>
-    <t>WILSON FRIAS ALCALA</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
     <t>73119747</t>
   </si>
   <si>
@@ -102,39 +135,6 @@
   </si>
   <si>
     <t>RALLPH ANTONIO LLOREDA DORIA</t>
-  </si>
-  <si>
-    <t>73574969</t>
-  </si>
-  <si>
-    <t>JOHN ALEXANDER PEREZ DE CASTRO</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
   </si>
   <si>
     <t>73167930</t>
@@ -184,7 +184,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385FCEC2-33A5-DCE7-A7D3-416D74B7318B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E7CF20-6F6D-9589-D827-EDCB57DF5D2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,28 +905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1D1D30-C483-4C2A-A58B-4EB7E51C7D5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0A49F7-A5D3-4CF8-9784-BDBB283BC62D}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -939,7 +939,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -950,7 +950,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -961,7 +961,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -972,8 +972,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
@@ -988,8 +988,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1004,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1020,8 +1020,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1083,16 +1083,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,315 +1106,315 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>8000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
@@ -1425,19 +1425,19 @@
         <v>34</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F31" s="24">
         <v>46400</v>
       </c>
       <c r="G31" s="24">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="32" t="s">
         <v>44</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="32" t="s">
         <v>43</v>
       </c>
